--- a/Dashboard_Draft.xlsx
+++ b/Dashboard_Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitashagill/Desktop/Bootcamp/Weather_Impact_On_Crime_Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC86C4A3-33CA-204E-B097-969AA14F9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47547FF8-15C4-384B-853A-75349B8A34D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{63BDC5D7-EA13-3843-AC7F-053540A29877}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Impacts of Weather on Crime Rates in Toronto</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Line graph - nbr of crimes over time</t>
+  </si>
+  <si>
+    <t>Filters - crime type</t>
+  </si>
+  <si>
+    <t>Filters - neighborhood</t>
+  </si>
+  <si>
+    <t>Filters - date range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map - location of crimes </t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -144,25 +156,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,78 +651,111 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dashboard_Draft.xlsx
+++ b/Dashboard_Draft.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitashagill/Desktop/Bootcamp/Weather_Impact_On_Crime_Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47547FF8-15C4-384B-853A-75349B8A34D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D34D42-271B-5841-8411-87B82D451EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{63BDC5D7-EA13-3843-AC7F-053540A29877}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{63BDC5D7-EA13-3843-AC7F-053540A29877}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,52 +36,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Impacts of Weather on Crime Rates in Toronto</t>
-  </si>
-  <si>
-    <t>Date range of dataset</t>
-  </si>
-  <si>
-    <t>Nbr of crimes</t>
-  </si>
-  <si>
-    <t>Pie chart - nbr of crimes by type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Filters</t>
   </si>
   <si>
-    <t>Line graph - nbr of crimes over time</t>
-  </si>
-  <si>
-    <t>Filters - crime type</t>
-  </si>
-  <si>
-    <t>Filters - neighborhood</t>
-  </si>
-  <si>
-    <t>Filters - date range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map - location of crimes </t>
+    <t>Visual Name</t>
+  </si>
+  <si>
+    <t>Visual Type</t>
+  </si>
+  <si>
+    <t>Nbr of crimes total</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>Total nbr of crimes by offence type</t>
+  </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Offence Type</t>
+  </si>
+  <si>
+    <t>Neighbourhood</t>
+  </si>
+  <si>
+    <t>Date range</t>
+  </si>
+  <si>
+    <t>Nbr of crimes over time</t>
+  </si>
+  <si>
+    <t>Line graph</t>
+  </si>
+  <si>
+    <t>Location of crimes in Toronto</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Tooltips</t>
+  </si>
+  <si>
+    <t>Average Temperature in Toronto</t>
+  </si>
+  <si>
+    <t>Other weather metrics?</t>
+  </si>
+  <si>
+    <t>Impact of Weather on Toronto Crime Rates</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Pie Charts</t>
+  </si>
+  <si>
+    <t>Line Graph</t>
+  </si>
+  <si>
+    <t>Date Range of Dataset</t>
+  </si>
+  <si>
+    <t>Able to drill down year -&gt; month -&gt; day?</t>
+  </si>
+  <si>
+    <t>Total nbr of crimes by location type</t>
+  </si>
+  <si>
+    <t>Total nbr of crimes by premise  type</t>
+  </si>
+  <si>
+    <t>Drill down MCI category -&gt; offence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,72 +149,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -178,17 +161,26 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -198,7 +190,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -206,12 +198,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -220,55 +212,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -277,22 +232,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,39 +258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,6 +276,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4132ABB2-BB1B-A24B-9BCE-8C0CD78D162E}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{4132ABB2-BB1B-A24B-9BCE-8C0CD78D162E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2883EDD1-F6E8-B34B-913E-7D98D4B48781}" name="Visual Name"/>
+    <tableColumn id="2" xr3:uid="{7A69D99D-4936-8E41-9263-387054A6391A}" name="Visual Type"/>
+    <tableColumn id="3" xr3:uid="{A4BD4D27-08F1-DF44-AA29-40EE57BB0405}" name="Tooltips"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,116 +586,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A878FEB-6527-E749-9A30-C3C08EA8C1CB}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170BD97-F5D0-A744-AD50-EC1FEB544581}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="7:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="F2:H2"/>
+  <mergeCells count="1">
+    <mergeCell ref="G1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Dashboard_Draft.xlsx
+++ b/Dashboard_Draft.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitashagill/Desktop/Bootcamp/Weather_Impact_On_Crime_Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D34D42-271B-5841-8411-87B82D451EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75661609-6DEB-3345-8D3C-6DCB945AEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{63BDC5D7-EA13-3843-AC7F-053540A29877}"/>
+    <workbookView xWindow="34540" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{63BDC5D7-EA13-3843-AC7F-053540A29877}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Draft" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -590,7 +590,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
